--- a/KDT.xlsx
+++ b/KDT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14330DC-AE57-4568-97F5-C53B8989133F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9EB85-E325-421F-9D9A-54CA4C129D9B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10275" windowHeight="5475" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1695,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B946BB34-8D51-4CE5-AAD8-9EAB609832B4}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,7 +1988,7 @@
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2002,7 +2002,7 @@
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2046,7 +2046,7 @@
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2132,284 +2132,20 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/KDT.xlsx
+++ b/KDT.xlsx
@@ -3,24 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9EB85-E325-421F-9D9A-54CA4C129D9B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8748640B-DF22-47FF-AC7C-C8B782E60432}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10275" windowHeight="5475" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10275" windowHeight="5475" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="MembershipRegistration" sheetId="2" r:id="rId2"/>
-    <sheet name="transactionEntry" sheetId="6" r:id="rId3"/>
-    <sheet name="MembRegNonInd" sheetId="5" r:id="rId4"/>
-    <sheet name="CreateFdSingle" sheetId="3" r:id="rId5"/>
-    <sheet name="CreateFdJoint" sheetId="4" r:id="rId6"/>
+    <sheet name="MemRegIndividual" sheetId="2" r:id="rId2"/>
+    <sheet name="MembRegNonInd" sheetId="5" r:id="rId3"/>
+    <sheet name="ModNonIndiv" sheetId="9" r:id="rId4"/>
+    <sheet name="transactionEntry" sheetId="8" r:id="rId5"/>
+    <sheet name="CreateFdSingle" sheetId="3" r:id="rId6"/>
+    <sheet name="ViewFd" sheetId="6" r:id="rId7"/>
+    <sheet name="CreateFdJoint" sheetId="4" r:id="rId8"/>
+    <sheet name="DeleteFd" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="220">
   <si>
     <t>Keyword</t>
   </si>
@@ -388,7 +391,169 @@
     <t>pan</t>
   </si>
   <si>
-    <t>ABCD12345</t>
+    <t>voter</t>
+  </si>
+  <si>
+    <t>driving</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>aadhar</t>
+  </si>
+  <si>
+    <t>#tab_menu_3 &gt; div</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>#custcity_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>Please select Village name</t>
+  </si>
+  <si>
+    <t>landline</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>#tab_menu_4 &gt; div</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>custeducation</t>
+  </si>
+  <si>
+    <t>custmaritalstatus</t>
+  </si>
+  <si>
+    <t>custactmanu</t>
+  </si>
+  <si>
+    <t>CHROME</t>
+  </si>
+  <si>
+    <t>#M_id_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>file_upload</t>
+  </si>
+  <si>
+    <t>cLICK</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>Create FD Joint</t>
+  </si>
+  <si>
+    <t>View Fixed Deposit</t>
+  </si>
+  <si>
+    <t>#s_account_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>FD 1721</t>
+  </si>
+  <si>
+    <t>SWITCHTAB</t>
+  </si>
+  <si>
+    <t>FD 7611</t>
+  </si>
+  <si>
+    <t>Delete Fixed Deposit</t>
+  </si>
+  <si>
+    <t>{{panNum}}</t>
+  </si>
+  <si>
+    <t>{{voterID}}</t>
+  </si>
+  <si>
+    <t>{{driving}}</t>
+  </si>
+  <si>
+    <t>{{passport}}</t>
+  </si>
+  <si>
+    <t>{{aadhar}}</t>
+  </si>
+  <si>
+    <t>{{address1}}</t>
+  </si>
+  <si>
+    <t>{{address2}}</t>
+  </si>
+  <si>
+    <t>{{village}}</t>
+  </si>
+  <si>
+    <t>{{state}}</t>
+  </si>
+  <si>
+    <t>{{landline}}</t>
+  </si>
+  <si>
+    <t>{{mobile}}</t>
+  </si>
+  <si>
+    <t>{{email}}</t>
+  </si>
+  <si>
+    <t>{{income}}</t>
+  </si>
+  <si>
+    <t>{{education}}</t>
+  </si>
+  <si>
+    <t>{{maritalStatus}}</t>
+  </si>
+  <si>
+    <t>{{natureActivity}}</t>
+  </si>
+  <si>
+    <t>{{accNum}}</t>
+  </si>
+  <si>
+    <t>{{imagePhoto}}</t>
+  </si>
+  <si>
+    <t>{{imageSig}}</t>
+  </si>
+  <si>
+    <t>{{notification}}</t>
+  </si>
+  <si>
+    <t>{{pinNum}}</t>
+  </si>
+  <si>
+    <t>{{member}}</t>
+  </si>
+  <si>
+    <t>Transaction test</t>
   </si>
   <si>
     <t>Transaction</t>
@@ -406,10 +571,22 @@
     <t>{{memberId}}</t>
   </si>
   <si>
+    <t>#account_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
     <t>{{accountNo}}</t>
   </si>
   <si>
-    <t>#account_chosen &gt; div &gt; ul &gt; li</t>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>#transaction_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>{{transactionType}}</t>
+  </si>
+  <si>
+    <t>Withdrawal Slip</t>
   </si>
   <si>
     <t>#instrumenttype_chosen &gt; div &gt; ul &gt; li</t>
@@ -418,41 +595,101 @@
     <t>{{instrumentType}}</t>
   </si>
   <si>
-    <t>Transaction test</t>
-  </si>
-  <si>
-    <t>CHROME</t>
+    <t>SB</t>
   </si>
   <si>
     <t>#txncodeee_chosen &gt; div &gt; ul &gt; li</t>
   </si>
   <si>
-    <t>{{transactionType}}</t>
-  </si>
-  <si>
-    <t>Withdrawal Slip</t>
-  </si>
-  <si>
-    <t>SB</t>
+    <t>{{transactionCode}}</t>
   </si>
   <si>
     <t>{{amount}}</t>
   </si>
   <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>#transaction_chosen &gt; div &gt; ul &gt; li</t>
-  </si>
-  <si>
-    <t>{{transactionCode}}</t>
+    <t>Member Modification</t>
+  </si>
+  <si>
+    <t>120041</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>CLEARTEXT</t>
+  </si>
+  <si>
+    <t>Please Select Action</t>
+  </si>
+  <si>
+    <t>#action_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>XYZ Colony, aazad nagar</t>
+  </si>
+  <si>
+    <t>#custcity_chosen &gt; a</t>
+  </si>
+  <si>
+    <t>#tab_content_4 &gt; div:nth-child(1) &gt; div &gt; input</t>
+  </si>
+  <si>
+    <t>#tab_content_4 &gt; div:nth-child(2) &gt; div &gt; input</t>
+  </si>
+  <si>
+    <t>{{action}}</t>
+  </si>
+  <si>
+    <t>{{constitution}}</t>
+  </si>
+  <si>
+    <t>{{docDetails}}</t>
+  </si>
+  <si>
+    <t>{{docIssue}}</t>
+  </si>
+  <si>
+    <t>{{docName}}</t>
+  </si>
+  <si>
+    <t>{{docAuth}}</t>
+  </si>
+  <si>
+    <t>{{docNum}}</t>
+  </si>
+  <si>
+    <t>{{docDate}}</t>
+  </si>
+  <si>
+    <t>{{signImg}}</t>
+  </si>
+  <si>
+    <t>{{photoImg}}</t>
+  </si>
+  <si>
+    <t>{{activity}}</t>
+  </si>
+  <si>
+    <t>{{mob}}</t>
+  </si>
+  <si>
+    <t>{{pin}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,8 +739,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,8 +760,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -553,12 +803,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -671,6 +932,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1014,7 +1322,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F9"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,30 +1482,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A8A92-97D3-462F-965E-4B5A1AF37519}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="57" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" style="26" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="58" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1210,46 +1518,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="3"/>
       <c r="E2" s="18"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="3"/>
       <c r="E3" s="18" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="3"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1260,12 +1568,12 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="59" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1276,12 +1584,12 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1290,12 +1598,12 @@
       <c r="E7" s="18"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1304,12 +1612,12 @@
       <c r="E8" s="18"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1318,12 +1626,12 @@
       <c r="E9" s="18"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="59" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1332,12 +1640,12 @@
       <c r="E10" s="18"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="59" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1346,12 +1654,12 @@
       <c r="E11" s="18"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="59" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1360,12 +1668,12 @@
       <c r="E12" s="21"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="59" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1374,12 +1682,12 @@
       <c r="E13" s="21"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="59" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1388,12 +1696,12 @@
       <c r="E14" s="21"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="49" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1402,12 +1710,12 @@
       <c r="E15" s="21"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="54" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -1418,12 +1726,12 @@
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="54" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -1434,12 +1742,12 @@
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="54" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -1450,12 +1758,12 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="54" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -1466,12 +1774,12 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="54" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1482,12 +1790,12 @@
       </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="56" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -1498,12 +1806,12 @@
       </c>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="54" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -1514,12 +1822,12 @@
       </c>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="54" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -1530,12 +1838,12 @@
       </c>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1544,12 +1852,12 @@
       <c r="E24" s="22"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -1560,12 +1868,12 @@
       </c>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="54" t="s">
         <v>110</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -1576,12 +1884,12 @@
       </c>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="54" t="s">
         <v>116</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -1592,12 +1900,12 @@
       </c>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="54" t="s">
         <v>117</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -1608,12 +1916,12 @@
       </c>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="54" t="s">
         <v>118</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -1624,12 +1932,12 @@
       </c>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="54" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -1640,12 +1948,12 @@
       </c>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="54" t="s">
         <v>120</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -1654,12 +1962,12 @@
       <c r="E31" s="22"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="54" t="s">
         <v>121</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -1668,21 +1976,541 @@
       <c r="E32" s="22"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="55"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="55"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="55"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="55"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="55"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="51"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1694,474 +2522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B946BB34-8D51-4CE5-AAD8-9EAB609832B4}">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{9721D484-5F26-455E-B7AB-2F699132482A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61B7D82-CEE6-41FD-9125-EE56619CF1C3}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,8 +2699,12 @@
       <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
@@ -3099,12 +3468,1358 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C1F170-1BBF-4AC3-8A03-C791D61394F2}">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="24" style="60"/>
+    <col min="5" max="5" width="65.5703125" style="67" customWidth="1"/>
+    <col min="6" max="16384" width="24" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
+      <c r="B8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="62"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62"/>
+      <c r="B10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="62"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="62"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="62"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="63"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62"/>
+      <c r="B15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="63"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="62"/>
+      <c r="B16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="63"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62"/>
+      <c r="B17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="63"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="62"/>
+      <c r="B18" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="62"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
+      <c r="B20" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="63"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="63"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="63"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="63"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" s="62"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="62"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="62"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="62"/>
+      <c r="B30" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="66"/>
+      <c r="F30" s="62"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="62"/>
+      <c r="B31" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="63"/>
+      <c r="F31" s="62"/>
+    </row>
+    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="62"/>
+      <c r="B32" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="62"/>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="63"/>
+      <c r="F33" s="62"/>
+    </row>
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="62"/>
+      <c r="B35" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="63"/>
+      <c r="F35" s="62"/>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="62"/>
+      <c r="B36" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="62"/>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="62"/>
+      <c r="B37" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="66"/>
+      <c r="F37" s="62"/>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="62"/>
+      <c r="B38" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="62"/>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="63"/>
+      <c r="F39" s="62"/>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="62"/>
+      <c r="B40" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="62"/>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="62"/>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" s="62"/>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="62"/>
+      <c r="B43" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43" s="62"/>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="62"/>
+      <c r="B44" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="62"/>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="62"/>
+      <c r="B45" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="63"/>
+      <c r="F45" s="62"/>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="62"/>
+      <c r="B46" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="62"/>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="63"/>
+      <c r="F47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="62"/>
+      <c r="B48" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="62"/>
+    </row>
+    <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="62"/>
+      <c r="B49" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="63"/>
+      <c r="F49" s="62"/>
+    </row>
+    <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="62"/>
+      <c r="B50" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="63"/>
+      <c r="F50" s="62"/>
+    </row>
+    <row r="51" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="62"/>
+      <c r="B51" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="62"/>
+    </row>
+    <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="62"/>
+      <c r="B52" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="62"/>
+      <c r="B53" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="62"/>
+    </row>
+    <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="62"/>
+      <c r="B54" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="62"/>
+    </row>
+    <row r="55" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="62"/>
+      <c r="B55" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="F55" s="62"/>
+    </row>
+    <row r="56" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="62"/>
+      <c r="B56" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="62"/>
+    </row>
+    <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="62"/>
+      <c r="B57" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="63"/>
+      <c r="F57" s="62"/>
+    </row>
+    <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="62"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="62"/>
+    </row>
+    <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="62"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="62"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{76CA33D6-A692-4719-AD29-52EE1DFBCA56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA127EE-0D5B-4C40-8971-53C310063337}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{520AFF5B-1D69-4601-934E-8392298E0134}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F75FEF4-ED88-4954-8513-A78D8C6558D7}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,12 +5395,344 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC2643E-C0FA-4C79-ABE8-AFFB029324AE}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="14">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
+        <v>5</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{A4FE0105-1F9B-4E97-ADBA-68047D2E8C81}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1933F68-F0EA-45ED-8C51-B832B52E5794}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="A38:F38"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3721,7 +5768,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -4248,4 +6295,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B325CB19-7953-4FD2-B0ED-834ADED3FB86}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{3BC3F325-1452-46F3-9CC9-5CF949D808A3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>